--- a/Bug_Report_1.xlsx
+++ b/Bug_Report_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCEDAE5-0F56-4C55-91A8-0ACCDA84A772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E06ED-4670-4CA5-BB38-4C00147E35D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Defect ID</t>
   </si>
@@ -74,7 +74,31 @@
     <t>Shop Now Function On Main page not working</t>
   </si>
   <si>
-    <t xml:space="preserve">When I put cursor on Shop now option </t>
+    <t>When I put cursor on Shop now option it will not take me to the productin all Browsers and cellphone.</t>
+  </si>
+  <si>
+    <t>When I put cursor to Subscribe option it will take me to the google chrome page.</t>
+  </si>
+  <si>
+    <t>Functions at Bottom of Main Page are not working</t>
+  </si>
+  <si>
+    <t>Subscribe Function is not Working</t>
+  </si>
+  <si>
+    <t>All Functions at the bottom of main page like ABOUT US /Departments /Help/Payment/Social and Delivery are not working on all browsers and ellphone.Only one function in Bottom of main page is working which is Garden</t>
+  </si>
+  <si>
+    <t>Functions at Top of Main Page are not working</t>
+  </si>
+  <si>
+    <t>Two funtions at the top of Main page like Help &amp; FAQs/Find out more are not working.</t>
+  </si>
+  <si>
+    <t>Choose Sizing of Product is not shown on Cellphone Specifically but shown on Web</t>
+  </si>
+  <si>
+    <t>When I open a product on Web to buy it there was a option of sizing in product but this option was not shown on Cell phone .</t>
   </si>
 </sst>
 </file>
@@ -149,19 +173,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -187,9 +208,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>638174</xdr:colOff>
+          <xdr:colOff>638175</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>21457</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
@@ -205,7 +226,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4B26AC-7DD2-19A7-2507-53418A4CFE44}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -226,23 +247,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -255,7 +263,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>657224</xdr:colOff>
+          <xdr:colOff>657225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>419100</xdr:rowOff>
         </xdr:from>
@@ -273,7 +281,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE54B39-6633-4421-4FCB-359AAF3BE345}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -294,23 +302,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -341,7 +336,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F9DD1EA-8224-18F5-5DBA-50D86554CC1D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -362,23 +357,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -391,15 +373,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>38099</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>19051</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>600074</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>419101</xdr:rowOff>
+          <xdr:rowOff>419100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -409,7 +391,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24EE6FB6-7600-FE97-C60F-EBD03FB8B631}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -430,23 +412,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -477,7 +446,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CB00C9-8D29-BDF8-E3EC-FA3CC5693E55}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -498,23 +467,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -527,13 +483,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1400176</xdr:colOff>
+          <xdr:colOff>1400175</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9526</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -545,7 +501,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7821E8-8C27-7878-E340-1083449CA0A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -566,23 +522,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -595,13 +538,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
+          <xdr:colOff>781050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1200150</xdr:colOff>
+          <xdr:colOff>1162050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
@@ -613,7 +556,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD87DD9-6696-267F-634C-1E4FA84EF9C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -634,23 +577,285 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>790575</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1162050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>381000</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>790575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1190625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>771525</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1228725</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>762000</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>552450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Object 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1285875</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1943100</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>542925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Object 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -924,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,28 +1162,28 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -986,15 +1191,67 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1160,13 +1417,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
+                <xdr:colOff>781050</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:colOff>1162050</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>733425</xdr:rowOff>
               </to>
@@ -1178,6 +1435,131 @@
         <oleObject progId="Packager Shell Object" shapeId="1031" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="1032" r:id="rId18">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>790575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>381000</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="1032" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="1034" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>790575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1190625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="1034" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="1035" r:id="rId22">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>771525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1228725</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>762000</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="1035" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="1036" r:id="rId24">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>552450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="1036" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="1037" r:id="rId26">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1285875</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1943100</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>542925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="1037" r:id="rId26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>